--- a/exercises/2.02.xlsx
+++ b/exercises/2.02.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="定義" sheetId="2" r:id="rId1"/>
+    <sheet name="2.02" sheetId="2" r:id="rId1"/>
+    <sheet name="2.03" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,20 +43,88 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -64,8 +133,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,6 +804,1134 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574800" y="3365500"/>
+          <a:ext cx="4756150" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2863850" y="1847850"/>
+          <a:ext cx="2546350" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1209947" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2273300" y="2527300"/>
+          <a:ext cx="1209947" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>start-segment</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1148841" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="1435100"/>
+          <a:ext cx="1148841" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>end-segment</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1534587" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="2114550"/>
+          <a:ext cx="1534587" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>midpoint-segment</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="520335" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2279650" y="2705100"/>
+          <a:ext cx="520335" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(3,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="611321" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5518150" y="1631950"/>
+          <a:ext cx="611321" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(11,5)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="520335" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4070350" y="2368550"/>
+          <a:ext cx="520335" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(7,4)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574800" y="3365500"/>
+          <a:ext cx="4756150" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形吹き出し 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4806950" y="2571750"/>
+          <a:ext cx="2127250" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27363"/>
+            <a:gd name="adj2" fmla="val -65179"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>練習問題</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ではこのような、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各辺が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>軸、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>軸に平行な</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>長方形のみ考える。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20164235">
+          <a:off x="2527300" y="4756150"/>
+          <a:ext cx="2546350" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形吹き出し 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="5156200"/>
+          <a:ext cx="2127250" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27363"/>
+            <a:gd name="adj2" fmla="val -65179"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このような長方形は考えない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回答が難しくなるため。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -985,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -995,4 +2210,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J7:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="10:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="10:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>